--- a/static/excel/pool-importvorlage-komplett.xlsx
+++ b/static/excel/pool-importvorlage-komplett.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apps\retype\pool-docu\datamgmt_docs\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C50B60-03CD-43C5-9264-25A0135D6436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEEE01D-64BF-42DB-97FB-1F35D61B039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1090" yWindow="1060" windowWidth="34140" windowHeight="19430" xr2:uid="{D7DA82DE-661B-4434-8FCB-AD97B6E46B4F}"/>
+    <workbookView xWindow="1430" yWindow="1400" windowWidth="34140" windowHeight="19430" xr2:uid="{D7DA82DE-661B-4434-8FCB-AD97B6E46B4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -191,9 +191,6 @@
     <t>12345-001</t>
   </si>
   <si>
-    <t>belieberVariantencode</t>
-  </si>
-  <si>
     <t>1234567891023</t>
   </si>
   <si>
@@ -255,6 +252,9 @@
   </si>
   <si>
     <t>in_stock,sold_out,tracked</t>
+  </si>
+  <si>
+    <t>beliebigerVariantencode</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -795,25 +795,25 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
       </c>
       <c r="I2">
         <v>25</v>
@@ -837,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q2">
         <v>15</v>
@@ -861,52 +861,52 @@
         <v>9.5</v>
       </c>
       <c r="AA2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB2" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>61</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>62</v>
       </c>
       <c r="AF2">
         <v>46010305</v>
       </c>
       <c r="AG2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH2" t="s">
         <v>63</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>64</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AM2" t="s">
         <v>65</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>66</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP2" t="s">
         <v>67</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>69</v>
       </c>
-      <c r="AP2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>70</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>71</v>
       </c>
-      <c r="AT2" t="s">
-        <v>72</v>
-      </c>
       <c r="AU2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AV2">
         <v>8.5</v>

--- a/static/excel/pool-importvorlage-komplett.xlsx
+++ b/static/excel/pool-importvorlage-komplett.xlsx
@@ -922,4 +922,264 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BA0AE64D09535C45B43E32951E7FE192" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="dc5367d52721b3cc686ff2a4502c4b22">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="972a4302-61b6-4e60-8451-b9c9ef50fbef" xmlns:ns3="c9de2a3f-a2ad-4682-ba79-07e79da285ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6be2ebb54767e97eb371acbf5d625405" ns2:_="" ns3:_="">
+    <xsd:import namespace="972a4302-61b6-4e60-8451-b9c9ef50fbef"/>
+    <xsd:import namespace="c9de2a3f-a2ad-4682-ba79-07e79da285ff"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:Notiz" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="972a4302-61b6-4e60-8451-b9c9ef50fbef" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Notiz" ma:index="12" nillable="true" ma:displayName="Notiz" ma:format="Dropdown" ma:internalName="Notiz">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a0857cb2-5995-4a4e-864c-039e98958a49" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="23" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c9de2a3f-a2ad-4682-ba79-07e79da285ff" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{71270af3-e075-41f7-be8d-7ea15da21774}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="c9de2a3f-a2ad-4682-ba79-07e79da285ff">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE263A7-639F-4BE6-96CD-2C6799C9EA64}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEF06674-B273-439D-B6E9-31FC69439600}"/>
 </file>
--- a/static/excel/pool-importvorlage-komplett.xlsx
+++ b/static/excel/pool-importvorlage-komplett.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sgr/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEEE01D-64BF-42DB-97FB-1F35D61B039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E074CB-8027-0C4A-BC96-537EBBBD922D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1430" yWindow="1400" windowWidth="34140" windowHeight="19430" xr2:uid="{D7DA82DE-661B-4434-8FCB-AD97B6E46B4F}"/>
+    <workbookView xWindow="51620" yWindow="620" windowWidth="34140" windowHeight="19440" xr2:uid="{D7DA82DE-661B-4434-8FCB-AD97B6E46B4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>number</t>
   </si>
@@ -255,6 +255,30 @@
   </si>
   <si>
     <t>beliebigerVariantencode</t>
+  </si>
+  <si>
+    <t>isEcoProduct</t>
+  </si>
+  <si>
+    <t>0 oder leer = Nein, 1 = Ja</t>
+  </si>
+  <si>
+    <t>unit1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verpackungseinheit1 </t>
+  </si>
+  <si>
+    <t>minimumQuantity1</t>
+  </si>
+  <si>
+    <t>maximumQuantity1</t>
+  </si>
+  <si>
+    <t>mind. Anzahl Bestelleinheiten</t>
+  </si>
+  <si>
+    <t>max. Anzahl Bestelleinheiten</t>
   </si>
 </sst>
 </file>
@@ -311,7 +335,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -327,7 +351,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -623,22 +647,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68064CE6-FD76-4DBC-9329-3242BDA4121F}">
-  <dimension ref="A1:AX2"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AY2" sqref="AY2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="38.90625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,73 +749,85 @@
         <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -867,54 +904,66 @@
         <v>59</v>
       </c>
       <c r="AC2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>61</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>46010305</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>63</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>64</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>65</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>66</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>68</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>67</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>69</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>70</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>71</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>70</v>
       </c>
-      <c r="AV2">
+      <c r="AW2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ2">
         <v>8.5</v>
       </c>
-      <c r="AW2" s="3">
+      <c r="BA2" s="3">
         <v>45170</v>
       </c>
-      <c r="AX2" s="3">
+      <c r="BB2" s="3">
         <v>45291</v>
       </c>
     </row>
@@ -925,6 +974,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BA0AE64D09535C45B43E32951E7FE192" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="dc5367d52721b3cc686ff2a4502c4b22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="972a4302-61b6-4e60-8451-b9c9ef50fbef" xmlns:ns3="c9de2a3f-a2ad-4682-ba79-07e79da285ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6be2ebb54767e97eb371acbf5d625405" ns2:_="" ns3:_="">
     <xsd:import namespace="972a4302-61b6-4e60-8451-b9c9ef50fbef"/>
@@ -1167,19 +1225,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE263A7-639F-4BE6-96CD-2C6799C9EA64}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEF06674-B273-439D-B6E9-31FC69439600}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEF06674-B273-439D-B6E9-31FC69439600}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE263A7-639F-4BE6-96CD-2C6799C9EA64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="972a4302-61b6-4e60-8451-b9c9ef50fbef"/>
+    <ds:schemaRef ds:uri="c9de2a3f-a2ad-4682-ba79-07e79da285ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/static/excel/pool-importvorlage-komplett.xlsx
+++ b/static/excel/pool-importvorlage-komplett.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sgr/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E074CB-8027-0C4A-BC96-537EBBBD922D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE809DFD-79A9-1F49-AACC-643C90291706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51620" yWindow="620" windowWidth="34140" windowHeight="19440" xr2:uid="{D7DA82DE-661B-4434-8FCB-AD97B6E46B4F}"/>
+    <workbookView xWindow="53760" yWindow="620" windowWidth="34140" windowHeight="19440" xr2:uid="{D7DA82DE-661B-4434-8FCB-AD97B6E46B4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>number</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>max. Anzahl Bestelleinheiten</t>
+  </si>
+  <si>
+    <t>manufacturerNumber</t>
+  </si>
+  <si>
+    <t>Hersteller-Artikelnummer</t>
   </si>
 </sst>
 </file>
@@ -647,323 +653,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68064CE6-FD76-4DBC-9329-3242BDA4121F}">
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AY2" sqref="AY2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>50</v>
       </c>
       <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>54</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>55</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>56</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>25</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
       </c>
       <c r="L2">
         <v>5</v>
       </c>
       <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
         <v>100</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>15</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>57</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>15</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>12.5</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>10</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>10.5</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>15</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>9.5</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>74</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>61</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>46010305</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>62</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>63</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>64</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>65</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>66</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>68</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>67</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>69</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>70</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>71</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>70</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>76</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>79</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>80</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>8.5</v>
       </c>
-      <c r="BA2" s="3">
+      <c r="BB2" s="3">
         <v>45170</v>
       </c>
-      <c r="BB2" s="3">
+      <c r="BC2" s="3">
         <v>45291</v>
       </c>
     </row>
@@ -974,15 +986,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BA0AE64D09535C45B43E32951E7FE192" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="dc5367d52721b3cc686ff2a4502c4b22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="972a4302-61b6-4e60-8451-b9c9ef50fbef" xmlns:ns3="c9de2a3f-a2ad-4682-ba79-07e79da285ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6be2ebb54767e97eb371acbf5d625405" ns2:_="" ns3:_="">
     <xsd:import namespace="972a4302-61b6-4e60-8451-b9c9ef50fbef"/>
@@ -1225,15 +1228,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEF06674-B273-439D-B6E9-31FC69439600}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE263A7-639F-4BE6-96CD-2C6799C9EA64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1250,4 +1254,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEF06674-B273-439D-B6E9-31FC69439600}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/static/excel/pool-importvorlage-komplett.xlsx
+++ b/static/excel/pool-importvorlage-komplett.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sgr/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alpinpool.sharepoint.com/sites/dm/Freigegebene Dokumente/30-39 Tools Intern/32 Applications/32.01 Retype/pool-docu/datamgmt_docs/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE809DFD-79A9-1F49-AACC-643C90291706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{CE809DFD-79A9-1F49-AACC-643C90291706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80084A08-BD4C-4447-A212-B89474FB18E2}"/>
   <bookViews>
-    <workbookView xWindow="53760" yWindow="620" windowWidth="34140" windowHeight="19440" xr2:uid="{D7DA82DE-661B-4434-8FCB-AD97B6E46B4F}"/>
+    <workbookView xWindow="54160" yWindow="620" windowWidth="34140" windowHeight="19440" xr2:uid="{D7DA82DE-661B-4434-8FCB-AD97B6E46B4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>maximumOrderQuantity</t>
   </si>
   <si>
-    <t>reccomendedOrderQuantity</t>
-  </si>
-  <si>
     <t>priceReferenceQuantity</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>Hersteller-Artikelnummer</t>
+  </si>
+  <si>
+    <t>recommendedOrderQuantity</t>
   </si>
 </sst>
 </file>
@@ -655,13 +655,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68064CE6-FD76-4DBC-9329-3242BDA4121F}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.1640625" customWidth="1"/>
     <col min="35" max="35" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="24.6640625" bestFit="1" customWidth="1"/>
@@ -674,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -713,156 +714,156 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>53</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>54</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>55</v>
-      </c>
-      <c r="I2" t="s">
-        <v>56</v>
       </c>
       <c r="J2">
         <v>25</v>
@@ -886,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R2">
         <v>15</v>
@@ -910,64 +911,64 @@
         <v>9.5</v>
       </c>
       <c r="AB2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>60</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>61</v>
       </c>
       <c r="AH2">
         <v>46010305</v>
       </c>
       <c r="AI2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>62</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>63</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AO2" t="s">
         <v>64</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>65</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR2" t="s">
         <v>66</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
         <v>68</v>
       </c>
-      <c r="AR2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>69</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>70</v>
       </c>
-      <c r="AV2" t="s">
-        <v>71</v>
-      </c>
       <c r="AW2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AX2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>79</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>80</v>
       </c>
       <c r="BA2">
         <v>8.5</v>
@@ -986,6 +987,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BA0AE64D09535C45B43E32951E7FE192" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="dc5367d52721b3cc686ff2a4502c4b22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="972a4302-61b6-4e60-8451-b9c9ef50fbef" xmlns:ns3="c9de2a3f-a2ad-4682-ba79-07e79da285ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6be2ebb54767e97eb371acbf5d625405" ns2:_="" ns3:_="">
     <xsd:import namespace="972a4302-61b6-4e60-8451-b9c9ef50fbef"/>
@@ -1228,16 +1238,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEF06674-B273-439D-B6E9-31FC69439600}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE263A7-639F-4BE6-96CD-2C6799C9EA64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1254,12 +1263,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEF06674-B273-439D-B6E9-31FC69439600}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/static/excel/pool-importvorlage-komplett.xlsx
+++ b/static/excel/pool-importvorlage-komplett.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alpinpool.sharepoint.com/sites/dm/Freigegebene Dokumente/30-39 Tools Intern/32 Applications/32.01 Retype/pool-docu/datamgmt_docs/static/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sgr/Scratch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{CE809DFD-79A9-1F49-AACC-643C90291706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80084A08-BD4C-4447-A212-B89474FB18E2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62174D8-0D03-0C4E-AC03-7E0C00DB33D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54160" yWindow="620" windowWidth="34140" windowHeight="19440" xr2:uid="{D7DA82DE-661B-4434-8FCB-AD97B6E46B4F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>number</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>recommendedOrderQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nur für Sonder/Aktionspreis </t>
   </si>
 </sst>
 </file>
@@ -655,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68064CE6-FD76-4DBC-9329-3242BDA4121F}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BA4" sqref="BA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -970,8 +973,8 @@
       <c r="AZ2" t="s">
         <v>79</v>
       </c>
-      <c r="BA2">
-        <v>8.5</v>
+      <c r="BA2" t="s">
+        <v>83</v>
       </c>
       <c r="BB2" s="3">
         <v>45170</v>
@@ -987,15 +990,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BA0AE64D09535C45B43E32951E7FE192" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="dc5367d52721b3cc686ff2a4502c4b22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="972a4302-61b6-4e60-8451-b9c9ef50fbef" xmlns:ns3="c9de2a3f-a2ad-4682-ba79-07e79da285ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6be2ebb54767e97eb371acbf5d625405" ns2:_="" ns3:_="">
     <xsd:import namespace="972a4302-61b6-4e60-8451-b9c9ef50fbef"/>
@@ -1238,15 +1232,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEF06674-B273-439D-B6E9-31FC69439600}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE263A7-639F-4BE6-96CD-2C6799C9EA64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1263,4 +1258,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEF06674-B273-439D-B6E9-31FC69439600}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/static/excel/pool-importvorlage-komplett.xlsx
+++ b/static/excel/pool-importvorlage-komplett.xlsx
@@ -990,8 +990,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BA0AE64D09535C45B43E32951E7FE192" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="dc5367d52721b3cc686ff2a4502c4b22">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="972a4302-61b6-4e60-8451-b9c9ef50fbef" xmlns:ns3="c9de2a3f-a2ad-4682-ba79-07e79da285ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6be2ebb54767e97eb371acbf5d625405" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BA0AE64D09535C45B43E32951E7FE192" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e92b413ad24d189239e7f487050cfd98">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="972a4302-61b6-4e60-8451-b9c9ef50fbef" xmlns:ns3="c9de2a3f-a2ad-4682-ba79-07e79da285ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e98146d495d482b07aa7e65b34436cf8" ns2:_="" ns3:_="">
     <xsd:import namespace="972a4302-61b6-4e60-8451-b9c9ef50fbef"/>
     <xsd:import namespace="c9de2a3f-a2ad-4682-ba79-07e79da285ff"/>
     <xsd:element name="properties">
@@ -1052,7 +1052,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a0857cb2-5995-4a4e-864c-039e98958a49" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a0857cb2-5995-4a4e-864c-039e98958a49" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -1106,7 +1106,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1125,7 +1125,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1142,8 +1142,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1242,22 +1242,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE263A7-639F-4BE6-96CD-2C6799C9EA64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="972a4302-61b6-4e60-8451-b9c9ef50fbef"/>
-    <ds:schemaRef ds:uri="c9de2a3f-a2ad-4682-ba79-07e79da285ff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01557CEC-DCF7-4A3B-8D41-7BEE3FF06D01}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/static/excel/pool-importvorlage-komplett.xlsx
+++ b/static/excel/pool-importvorlage-komplett.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sgr/Scratch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alpinpool.sharepoint.com/sites/dm/Freigegebene Dokumente/30-39 Tools Intern/32 Applications/32.01 Retype/pool-docu/datamgmt_docs/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62174D8-0D03-0C4E-AC03-7E0C00DB33D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E62174D8-0D03-0C4E-AC03-7E0C00DB33D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA19EA30-108F-7649-87A7-E86701F3FFC6}"/>
   <bookViews>
     <workbookView xWindow="54160" yWindow="620" windowWidth="34140" windowHeight="19440" xr2:uid="{D7DA82DE-661B-4434-8FCB-AD97B6E46B4F}"/>
   </bookViews>
@@ -236,9 +236,6 @@
     <t>Feldinhalt als Wert</t>
   </si>
   <si>
-    <t>Material=Stahl,Länge=10mm</t>
-  </si>
-  <si>
     <t>Alternative →</t>
   </si>
   <si>
@@ -288,6 +285,9 @@
   </si>
   <si>
     <t xml:space="preserve">nur für Sonder/Aktionspreis </t>
+  </si>
+  <si>
+    <t>Material=Stahl|Länge=10mm</t>
   </si>
 </sst>
 </file>
@@ -360,9 +360,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -400,7 +400,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -506,7 +506,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -648,7 +648,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68064CE6-FD76-4DBC-9329-3242BDA4121F}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BA4" sqref="BA4"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>13</v>
@@ -762,7 +762,7 @@
         <v>26</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>27</v>
@@ -822,13 +822,13 @@
         <v>45</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>46</v>
@@ -845,10 +845,10 @@
         <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>50</v>
@@ -920,7 +920,7 @@
         <v>58</v>
       </c>
       <c r="AD2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE2" t="s">
         <v>59</v>
@@ -947,34 +947,34 @@
         <v>65</v>
       </c>
       <c r="AQ2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT2" t="s">
         <v>67</v>
       </c>
-      <c r="AR2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>68</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>69</v>
       </c>
-      <c r="AV2" t="s">
-        <v>70</v>
-      </c>
       <c r="AW2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AX2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AY2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>78</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>79</v>
-      </c>
       <c r="BA2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BB2" s="3">
         <v>45170</v>
@@ -990,6 +990,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BA0AE64D09535C45B43E32951E7FE192" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e92b413ad24d189239e7f487050cfd98">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="972a4302-61b6-4e60-8451-b9c9ef50fbef" xmlns:ns3="c9de2a3f-a2ad-4682-ba79-07e79da285ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e98146d495d482b07aa7e65b34436cf8" ns2:_="" ns3:_="">
     <xsd:import namespace="972a4302-61b6-4e60-8451-b9c9ef50fbef"/>
@@ -1232,23 +1241,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01557CEC-DCF7-4A3B-8D41-7BEE3FF06D01}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEF06674-B273-439D-B6E9-31FC69439600}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01557CEC-DCF7-4A3B-8D41-7BEE3FF06D01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="972a4302-61b6-4e60-8451-b9c9ef50fbef"/>
+    <ds:schemaRef ds:uri="c9de2a3f-a2ad-4682-ba79-07e79da285ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>